--- a/DB_Proyecto.xlsx
+++ b/DB_Proyecto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Desktop\8vo\Econometría espacial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013AD1A0-7844-40FD-B6AF-AAE62236AD9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C3E036-AE85-46DA-849C-0E50CF4B538E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{95B260EE-8FE1-400B-B4EE-845C0CFB21BC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{95B260EE-8FE1-400B-B4EE-845C0CFB21BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos " sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="Mapa" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$A$1:$E$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Casos '!$A$1:$K$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Tasa de Pobreza '!$A$1:$B$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="76">
   <si>
     <t>Entidad</t>
   </si>
@@ -144,9 +146,6 @@
     <t>CDMX</t>
   </si>
   <si>
-    <t>x0</t>
-  </si>
-  <si>
     <t>Ciudad de México</t>
   </si>
   <si>
@@ -160,12 +159,6 @@
   </si>
   <si>
     <t>San Luis Potosí</t>
-  </si>
-  <si>
-    <t>ln y</t>
-  </si>
-  <si>
-    <t>ln x1</t>
   </si>
   <si>
     <r>
@@ -593,12 +586,28 @@
   <si>
     <t>Querétaro</t>
   </si>
+  <si>
+    <t>Incidencia Delictiva</t>
+  </si>
+  <si>
+    <t>Constante</t>
+  </si>
+  <si>
+    <t>PIB per capita</t>
+  </si>
+  <si>
+    <t>% pobreza</t>
+  </si>
+  <si>
+    <t>Yucatán</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
@@ -739,11 +748,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -760,9 +770,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -771,14 +778,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -1160,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAFC757D-5180-47E8-A37C-8C9D9D7E6B9B}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1232,7 +1247,7 @@
       <c r="J2" s="3">
         <v>36500</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="6">
         <f>(J2-I2)/I2</f>
         <v>-8.5488073762277003E-2</v>
       </c>
@@ -1268,8 +1283,8 @@
       <c r="J3" s="2">
         <v>42725</v>
       </c>
-      <c r="K3" s="7">
-        <f t="shared" ref="K3:K33" si="0">(J3-I3)/I3</f>
+      <c r="K3" s="6">
+        <f>(J3-I3)/I3</f>
         <v>-2.7230709683295006E-2</v>
       </c>
     </row>
@@ -1304,8 +1319,8 @@
       <c r="J4" s="3">
         <v>28377</v>
       </c>
-      <c r="K4" s="7">
-        <f t="shared" si="0"/>
+      <c r="K4" s="6">
+        <f>(J4-I4)/I4</f>
         <v>0.10459322693655118</v>
       </c>
     </row>
@@ -1340,189 +1355,189 @@
       <c r="J5" s="2">
         <v>26466</v>
       </c>
-      <c r="K5" s="7">
-        <f t="shared" si="0"/>
+      <c r="K5" s="6">
+        <f>(J5-I5)/I5</f>
         <v>-6.4243538521373267E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3">
-        <v>29279</v>
+        <v>15028</v>
       </c>
       <c r="C6" s="3">
-        <v>26558</v>
+        <v>13663</v>
       </c>
       <c r="D6" s="3">
-        <v>17870</v>
+        <v>12827</v>
       </c>
       <c r="E6" s="3">
-        <v>25451</v>
+        <v>19215</v>
       </c>
       <c r="F6" s="3">
-        <v>18318</v>
+        <v>19160</v>
       </c>
       <c r="G6" s="3">
-        <v>24800</v>
+        <v>16687</v>
       </c>
       <c r="H6" s="3">
-        <v>25215</v>
+        <v>20055</v>
       </c>
       <c r="I6" s="3">
-        <v>25299</v>
+        <v>20464</v>
       </c>
       <c r="J6" s="3">
-        <v>24813</v>
-      </c>
-      <c r="K6" s="7">
-        <f t="shared" si="0"/>
-        <v>-1.9210245464247599E-2</v>
+        <v>19409</v>
+      </c>
+      <c r="K6" s="6">
+        <f>(J6-I6)/I6</f>
+        <v>-5.1553948397185301E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>17343</v>
+        <v>41903</v>
       </c>
       <c r="C7" s="2">
-        <v>22287</v>
+        <v>30562</v>
       </c>
       <c r="D7" s="2">
-        <v>25169</v>
+        <v>35952</v>
       </c>
       <c r="E7" s="2">
-        <v>26309</v>
+        <v>31669</v>
       </c>
       <c r="F7" s="2">
-        <v>30535</v>
+        <v>24295</v>
       </c>
       <c r="G7" s="2">
-        <v>27045</v>
+        <v>31274</v>
       </c>
       <c r="H7" s="2">
-        <v>29449</v>
+        <v>34920</v>
       </c>
       <c r="I7" s="2">
-        <v>27074</v>
+        <v>28857</v>
       </c>
       <c r="J7" s="2">
-        <v>28376</v>
-      </c>
-      <c r="K7" s="7">
-        <f t="shared" si="0"/>
-        <v>4.8090418852035161E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>28622</v>
+      </c>
+      <c r="K7" s="6">
+        <f>(J7-I7)/I7</f>
+        <v>-8.1436046713102544E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B8" s="3">
-        <v>15028</v>
+        <v>44055</v>
       </c>
       <c r="C8" s="3">
-        <v>13663</v>
+        <v>40790</v>
       </c>
       <c r="D8" s="3">
-        <v>12827</v>
+        <v>49198</v>
       </c>
       <c r="E8" s="3">
-        <v>19215</v>
+        <v>51786</v>
       </c>
       <c r="F8" s="3">
-        <v>19160</v>
+        <v>59545</v>
       </c>
       <c r="G8" s="3">
-        <v>16687</v>
+        <v>52718</v>
       </c>
       <c r="H8" s="3">
-        <v>20055</v>
+        <v>49913</v>
       </c>
       <c r="I8" s="3">
-        <v>20464</v>
+        <v>68954</v>
       </c>
       <c r="J8" s="3">
-        <v>19409</v>
-      </c>
-      <c r="K8" s="7">
-        <f t="shared" si="0"/>
-        <v>-5.1553948397185301E-2</v>
+        <v>69716</v>
+      </c>
+      <c r="K8" s="6">
+        <f>(J8-I8)/I8</f>
+        <v>1.1050845491197029E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
-        <v>41903</v>
-      </c>
-      <c r="C9" s="2">
-        <v>30562</v>
-      </c>
-      <c r="D9" s="2">
-        <v>35952</v>
-      </c>
-      <c r="E9" s="2">
-        <v>31669</v>
-      </c>
-      <c r="F9" s="2">
-        <v>24295</v>
-      </c>
-      <c r="G9" s="2">
-        <v>31274</v>
-      </c>
-      <c r="H9" s="2">
-        <v>34920</v>
-      </c>
-      <c r="I9" s="2">
-        <v>28857</v>
-      </c>
-      <c r="J9" s="2">
-        <v>28622</v>
-      </c>
-      <c r="K9" s="7">
-        <f t="shared" si="0"/>
-        <v>-8.1436046713102544E-3</v>
+        <v>32</v>
+      </c>
+      <c r="B9" s="3">
+        <v>29279</v>
+      </c>
+      <c r="C9" s="3">
+        <v>26558</v>
+      </c>
+      <c r="D9" s="3">
+        <v>17870</v>
+      </c>
+      <c r="E9" s="3">
+        <v>25451</v>
+      </c>
+      <c r="F9" s="3">
+        <v>18318</v>
+      </c>
+      <c r="G9" s="3">
+        <v>24800</v>
+      </c>
+      <c r="H9" s="3">
+        <v>25215</v>
+      </c>
+      <c r="I9" s="3">
+        <v>25299</v>
+      </c>
+      <c r="J9" s="3">
+        <v>24813</v>
+      </c>
+      <c r="K9" s="6">
+        <f>(J9-I9)/I9</f>
+        <v>-1.9210245464247599E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="3">
-        <v>44055</v>
-      </c>
-      <c r="C10" s="3">
-        <v>40790</v>
-      </c>
-      <c r="D10" s="3">
-        <v>49198</v>
-      </c>
-      <c r="E10" s="3">
-        <v>51786</v>
-      </c>
-      <c r="F10" s="3">
-        <v>59545</v>
-      </c>
-      <c r="G10" s="3">
-        <v>52718</v>
-      </c>
-      <c r="H10" s="3">
-        <v>49913</v>
-      </c>
-      <c r="I10" s="3">
-        <v>68954</v>
-      </c>
-      <c r="J10" s="3">
-        <v>69716</v>
-      </c>
-      <c r="K10" s="7">
-        <f t="shared" si="0"/>
-        <v>1.1050845491197029E-2</v>
+        <v>5</v>
+      </c>
+      <c r="B10" s="2">
+        <v>17343</v>
+      </c>
+      <c r="C10" s="2">
+        <v>22287</v>
+      </c>
+      <c r="D10" s="2">
+        <v>25169</v>
+      </c>
+      <c r="E10" s="2">
+        <v>26309</v>
+      </c>
+      <c r="F10" s="2">
+        <v>30535</v>
+      </c>
+      <c r="G10" s="2">
+        <v>27045</v>
+      </c>
+      <c r="H10" s="2">
+        <v>29449</v>
+      </c>
+      <c r="I10" s="2">
+        <v>27074</v>
+      </c>
+      <c r="J10" s="2">
+        <v>28376</v>
+      </c>
+      <c r="K10" s="6">
+        <f>(J10-I10)/I10</f>
+        <v>4.8090418852035161E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1556,8 +1571,8 @@
       <c r="J11" s="2">
         <v>22586</v>
       </c>
-      <c r="K11" s="7">
-        <f t="shared" si="0"/>
+      <c r="K11" s="6">
+        <f>(J11-I11)/I11</f>
         <v>8.8628910750686871E-4</v>
       </c>
     </row>
@@ -1592,8 +1607,8 @@
       <c r="J12" s="3">
         <v>38067</v>
       </c>
-      <c r="K12" s="7">
-        <f t="shared" si="0"/>
+      <c r="K12" s="6">
+        <f>(J12-I12)/I12</f>
         <v>0.30228182409086246</v>
       </c>
     </row>
@@ -1628,8 +1643,8 @@
       <c r="J13" s="2">
         <v>43051</v>
       </c>
-      <c r="K13" s="7">
-        <f t="shared" si="0"/>
+      <c r="K13" s="6">
+        <f>(J13-I13)/I13</f>
         <v>-4.3438652624094562E-2</v>
       </c>
     </row>
@@ -1664,8 +1679,8 @@
       <c r="J14" s="3">
         <v>25987</v>
       </c>
-      <c r="K14" s="7">
-        <f t="shared" si="0"/>
+      <c r="K14" s="6">
+        <f>(J14-I14)/I14</f>
         <v>0.17402304043370229</v>
       </c>
     </row>
@@ -1700,8 +1715,8 @@
       <c r="J15" s="2">
         <v>40543</v>
       </c>
-      <c r="K15" s="7">
-        <f t="shared" si="0"/>
+      <c r="K15" s="6">
+        <f>(J15-I15)/I15</f>
         <v>-5.7643585988889662E-2</v>
       </c>
     </row>
@@ -1736,8 +1751,8 @@
       <c r="J16" s="3">
         <v>51520</v>
       </c>
-      <c r="K16" s="7">
-        <f t="shared" si="0"/>
+      <c r="K16" s="6">
+        <f>(J16-I16)/I16</f>
         <v>-0.21200348725164803</v>
       </c>
     </row>
@@ -1772,8 +1787,8 @@
       <c r="J17" s="2">
         <v>22999</v>
       </c>
-      <c r="K17" s="7">
-        <f t="shared" si="0"/>
+      <c r="K17" s="6">
+        <f>(J17-I17)/I17</f>
         <v>1.6575318246110325E-2</v>
       </c>
     </row>
@@ -1808,8 +1823,8 @@
       <c r="J18" s="3">
         <v>45312</v>
       </c>
-      <c r="K18" s="7">
-        <f t="shared" si="0"/>
+      <c r="K18" s="6">
+        <f>(J18-I18)/I18</f>
         <v>-6.6271018793273989E-2</v>
       </c>
     </row>
@@ -1844,8 +1859,8 @@
       <c r="J19" s="2">
         <v>23670</v>
       </c>
-      <c r="K19" s="7">
-        <f t="shared" si="0"/>
+      <c r="K19" s="6">
+        <f>(J19-I19)/I19</f>
         <v>-0.28500226551880381</v>
       </c>
     </row>
@@ -1880,8 +1895,8 @@
       <c r="J20" s="3">
         <v>27805</v>
       </c>
-      <c r="K20" s="7">
-        <f t="shared" si="0"/>
+      <c r="K20" s="6">
+        <f>(J20-I20)/I20</f>
         <v>-0.14200635665134076</v>
       </c>
     </row>
@@ -1916,8 +1931,8 @@
       <c r="J21" s="2">
         <v>26221</v>
       </c>
-      <c r="K21" s="7">
-        <f t="shared" si="0"/>
+      <c r="K21" s="6">
+        <f>(J21-I21)/I21</f>
         <v>0.18368544600938966</v>
       </c>
     </row>
@@ -1952,8 +1967,8 @@
       <c r="J22" s="3">
         <v>37647</v>
       </c>
-      <c r="K22" s="7">
-        <f t="shared" si="0"/>
+      <c r="K22" s="6">
+        <f>(J22-I22)/I22</f>
         <v>-0.11090380936636517</v>
       </c>
     </row>
@@ -1988,8 +2003,8 @@
       <c r="J23" s="2">
         <v>32756</v>
       </c>
-      <c r="K23" s="7">
-        <f t="shared" si="0"/>
+      <c r="K23" s="6">
+        <f>(J23-I23)/I23</f>
         <v>-7.4558553468003955E-2</v>
       </c>
     </row>
@@ -2024,8 +2039,8 @@
       <c r="J24" s="3">
         <v>33243</v>
       </c>
-      <c r="K24" s="7">
-        <f t="shared" si="0"/>
+      <c r="K24" s="6">
+        <f>(J24-I24)/I24</f>
         <v>-7.8150831104030775E-4</v>
       </c>
     </row>
@@ -2060,8 +2075,8 @@
       <c r="J25" s="2">
         <v>32342</v>
       </c>
-      <c r="K25" s="7">
-        <f t="shared" si="0"/>
+      <c r="K25" s="6">
+        <f>(J25-I25)/I25</f>
         <v>2.1122091371199445E-2</v>
       </c>
     </row>
@@ -2096,8 +2111,8 @@
       <c r="J26" s="3">
         <v>29507</v>
       </c>
-      <c r="K26" s="7">
-        <f t="shared" si="0"/>
+      <c r="K26" s="6">
+        <f>(J26-I26)/I26</f>
         <v>2.6401836649506051E-2</v>
       </c>
     </row>
@@ -2132,8 +2147,8 @@
       <c r="J27" s="2">
         <v>50861</v>
       </c>
-      <c r="K27" s="7">
-        <f t="shared" si="0"/>
+      <c r="K27" s="6">
+        <f>(J27-I27)/I27</f>
         <v>0.27923237505973492</v>
       </c>
     </row>
@@ -2168,8 +2183,8 @@
       <c r="J28" s="3">
         <v>36546</v>
       </c>
-      <c r="K28" s="7">
-        <f t="shared" si="0"/>
+      <c r="K28" s="6">
+        <f>(J28-I28)/I28</f>
         <v>-0.1986229278133497</v>
       </c>
     </row>
@@ -2204,8 +2219,8 @@
       <c r="J29" s="2">
         <v>25368</v>
       </c>
-      <c r="K29" s="7">
-        <f t="shared" si="0"/>
+      <c r="K29" s="6">
+        <f>(J29-I29)/I29</f>
         <v>7.0108833206783086E-2</v>
       </c>
     </row>
@@ -2240,8 +2255,8 @@
       <c r="J30" s="3">
         <v>40336</v>
       </c>
-      <c r="K30" s="7">
-        <f t="shared" si="0"/>
+      <c r="K30" s="6">
+        <f>(J30-I30)/I30</f>
         <v>0.19171566165391321</v>
       </c>
     </row>
@@ -2276,8 +2291,8 @@
       <c r="J31" s="2">
         <v>25350</v>
       </c>
-      <c r="K31" s="7">
-        <f t="shared" si="0"/>
+      <c r="K31" s="6">
+        <f>(J31-I31)/I31</f>
         <v>0.38524590163934425</v>
       </c>
     </row>
@@ -2312,8 +2327,8 @@
       <c r="J32" s="3">
         <v>26462</v>
       </c>
-      <c r="K32" s="7">
-        <f t="shared" si="0"/>
+      <c r="K32" s="6">
+        <f>(J32-I32)/I32</f>
         <v>9.8099427338368322E-2</v>
       </c>
     </row>
@@ -2348,12 +2363,17 @@
       <c r="J33" s="2">
         <v>26670</v>
       </c>
-      <c r="K33" s="7">
-        <f t="shared" si="0"/>
+      <c r="K33" s="6">
+        <f>(J33-I33)/I33</f>
         <v>-0.23012528145026268</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K33" xr:uid="{8F8D7E26-2263-4CA7-93A5-731795504464}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K33">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2361,477 +2381,587 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2130B5BD-82A5-42E7-A986-E8E65E948D91}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>36500</v>
       </c>
-      <c r="C2" s="12">
-        <v>1</v>
-      </c>
-      <c r="D2" s="11">
+      <c r="C2" s="10">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7">
         <v>26.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="14">
+        <v>13309.223482201882</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>42725</v>
       </c>
-      <c r="C3" s="12">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11">
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7">
         <v>23.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="14">
+        <v>13009.81404304939</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3">
         <v>28377</v>
       </c>
-      <c r="C4" s="12">
-        <v>1</v>
-      </c>
-      <c r="D4" s="11">
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
         <v>18.100000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="14">
+        <v>17000.287966970533</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>26466</v>
       </c>
-      <c r="C5" s="12">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11">
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
         <v>46.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="14">
+        <v>9916.0053542647784</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>19409</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="E6" s="14">
+        <v>16292.803908845779</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>28622</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>26.3</v>
+      </c>
+      <c r="E7" s="14">
+        <v>12663.332035046826</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="3">
+        <v>69716</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>30.6</v>
+      </c>
+      <c r="E8" s="14">
+        <v>3913.8889745457927</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B9" s="3">
         <v>24813</v>
       </c>
-      <c r="C6" s="12">
-        <v>1</v>
-      </c>
-      <c r="D6" s="11">
-        <v>76.400000000000006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>22.5</v>
+      </c>
+      <c r="E9" s="14">
+        <v>12904.535157136817</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B10" s="2">
         <v>28376</v>
       </c>
-      <c r="C7" s="12">
-        <v>1</v>
-      </c>
-      <c r="D7" s="11">
-        <v>26.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
-        <v>19409</v>
-      </c>
-      <c r="C8" s="12">
-        <v>1</v>
-      </c>
-      <c r="D8" s="11">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
-        <v>28622</v>
-      </c>
-      <c r="C9" s="12">
-        <v>1</v>
-      </c>
-      <c r="D9" s="11">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="3">
-        <v>69716</v>
-      </c>
-      <c r="C10" s="12">
-        <v>1</v>
-      </c>
-      <c r="D10" s="11">
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
         <v>30.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="14">
+        <v>28503.977108819559</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="2">
         <v>22586</v>
       </c>
-      <c r="C11" s="12">
-        <v>1</v>
-      </c>
-      <c r="D11" s="11">
+      <c r="C11" s="10">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
         <v>37.299999999999997</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="14">
+        <v>9418.0339350063114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="3">
         <v>38067</v>
       </c>
-      <c r="C12" s="12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="11">
+      <c r="C12" s="10">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
         <v>43.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E12" s="14">
+        <v>9674.6214404158327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="2">
         <v>43051</v>
       </c>
-      <c r="C13" s="12">
-        <v>1</v>
-      </c>
-      <c r="D13" s="11">
+      <c r="C13" s="10">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
         <v>66.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E13" s="14">
+        <v>5701.4451251801229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="3">
         <v>25987</v>
       </c>
-      <c r="C14" s="12">
-        <v>1</v>
-      </c>
-      <c r="D14" s="11">
+      <c r="C14" s="10">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
         <v>43.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E14" s="14">
+        <v>7454.0408745278719</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="2">
         <v>40543</v>
       </c>
-      <c r="C15" s="12">
-        <v>1</v>
-      </c>
-      <c r="D15" s="11">
+      <c r="C15" s="10">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
         <v>28.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E15" s="14">
+        <v>12316.128101970558</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="3">
         <v>51520</v>
       </c>
-      <c r="C16" s="12">
-        <v>1</v>
-      </c>
-      <c r="D16" s="11">
+      <c r="C16" s="10">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
         <v>42.7</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E16" s="14">
+        <v>7841.8320748757315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2">
         <v>22999</v>
       </c>
-      <c r="C17" s="12">
-        <v>1</v>
-      </c>
-      <c r="D17" s="11">
+      <c r="C17" s="10">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E17" s="14">
+        <v>7506.2448815850776</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="3">
         <v>45312</v>
       </c>
-      <c r="C18" s="12">
-        <v>1</v>
-      </c>
-      <c r="D18" s="11">
+      <c r="C18" s="10">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7">
         <v>50.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E18" s="14">
+        <v>8568.4951475381476</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="2">
         <v>23670</v>
       </c>
-      <c r="C19" s="12">
-        <v>1</v>
-      </c>
-      <c r="D19" s="11">
+      <c r="C19" s="10">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
         <v>34.799999999999997</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="14">
+        <v>8257.6956262932072</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="3">
         <v>27805</v>
       </c>
-      <c r="C20" s="12">
-        <v>1</v>
-      </c>
-      <c r="D20" s="11">
+      <c r="C20" s="10">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="14">
+        <v>20217.157658462333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="2">
         <v>26221</v>
       </c>
-      <c r="C21" s="12">
-        <v>1</v>
-      </c>
-      <c r="D21" s="11">
+      <c r="C21" s="10">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7">
         <v>66.400000000000006</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="14">
+        <v>5134.8001288841442</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="3">
         <v>37647</v>
       </c>
-      <c r="C22" s="12">
-        <v>1</v>
-      </c>
-      <c r="D22" s="11">
+      <c r="C22" s="10">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7">
         <v>58.9</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E22" s="14">
+        <v>7644.4487461104827</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B23" s="2">
         <v>32756</v>
       </c>
-      <c r="C23" s="12">
-        <v>1</v>
-      </c>
-      <c r="D23" s="11">
+      <c r="C23" s="10">
+        <v>1</v>
+      </c>
+      <c r="D23" s="7">
         <v>27.6</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="14">
+        <v>14587.509956788352</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="3">
         <v>33243</v>
       </c>
-      <c r="C24" s="12">
-        <v>1</v>
-      </c>
-      <c r="D24" s="11">
+      <c r="C24" s="10">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7">
         <v>27.6</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E24" s="14">
+        <v>13521.880290705232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2">
         <v>32342</v>
       </c>
-      <c r="C25" s="12">
-        <v>1</v>
-      </c>
-      <c r="D25" s="11">
+      <c r="C25" s="10">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7">
         <v>43.4</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E25" s="14">
+        <v>11027.608182503844</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="3">
         <v>29507</v>
       </c>
-      <c r="C26" s="12">
-        <v>1</v>
-      </c>
-      <c r="D26" s="11">
+      <c r="C26" s="10">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
         <v>30.9</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E26" s="14">
+        <v>11093.327875712646</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="2">
         <v>50861</v>
       </c>
-      <c r="C27" s="12">
-        <v>1</v>
-      </c>
-      <c r="D27" s="11">
+      <c r="C27" s="10">
+        <v>1</v>
+      </c>
+      <c r="D27" s="7">
         <v>28.2</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E27" s="14">
+        <v>16645.621780080997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="3">
         <v>36546</v>
       </c>
-      <c r="C28" s="12">
-        <v>1</v>
-      </c>
-      <c r="D28" s="11">
+      <c r="C28" s="10">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7">
         <v>53.6</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E28" s="14">
+        <v>8437.8895064545632</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="2">
         <v>25368</v>
       </c>
-      <c r="C29" s="12">
-        <v>1</v>
-      </c>
-      <c r="D29" s="11">
+      <c r="C29" s="10">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7">
         <v>35.1</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E29" s="14">
+        <v>12102.356088088332</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="3">
         <v>40336</v>
       </c>
-      <c r="C30" s="12">
-        <v>1</v>
-      </c>
-      <c r="D30" s="11">
+      <c r="C30" s="10">
+        <v>1</v>
+      </c>
+      <c r="D30" s="7">
         <v>48.4</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E30" s="14">
+        <v>6602.8744995606621</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="2">
         <v>25350</v>
       </c>
-      <c r="C31" s="12">
-        <v>1</v>
-      </c>
-      <c r="D31" s="11">
+      <c r="C31" s="10">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7">
         <v>61.8</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E31" s="14">
+        <v>8030.9578343306339</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="B32" s="3">
         <v>26462</v>
       </c>
-      <c r="C32" s="12">
-        <v>1</v>
-      </c>
-      <c r="D32" s="11">
+      <c r="C32" s="10">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
         <v>40.799999999999997</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E32" s="14">
+        <v>9666.0123354232837</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B33" s="2">
         <v>26670</v>
       </c>
-      <c r="C33" s="12">
-        <v>1</v>
-      </c>
-      <c r="D33" s="11">
+      <c r="C33" s="10">
+        <v>1</v>
+      </c>
+      <c r="D33" s="7">
         <v>46.8</v>
       </c>
+      <c r="E33" s="14">
+        <v>7905.0920946664764</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E33" xr:uid="{0F743CDF-9E92-4FB3-9573-4A8446D304FE}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E33">
+      <sortCondition ref="A1:A33"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E33">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2841,7 +2971,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="B2" sqref="B2:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2854,262 +2984,262 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
         <v>26.2</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="7">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="7">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="8">
+        <v>46.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="7">
+        <v>76.400000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="7">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="7">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="7">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="7">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="7">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="7">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="7">
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7">
+        <v>43.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="7">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="7">
+        <v>42.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="7">
+        <v>50.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="7">
+        <v>34.799999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="8">
-        <v>23.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="8">
-        <v>18.100000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="9">
-        <v>46.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+      <c r="B20" s="7">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7">
+        <v>66.400000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="8">
-        <v>76.400000000000006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="8">
-        <v>26.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+      <c r="B22" s="7">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="8">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="8">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
+      <c r="B23" s="7">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="7">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="7">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="7">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="8">
-        <v>30.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="8">
-        <v>37.299999999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
+      <c r="B27" s="7">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="7">
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="7">
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="7">
+        <v>48.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="7">
+        <v>61.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="8">
-        <v>43.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="8">
-        <v>66.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="8">
-        <v>43.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="8">
-        <v>28.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="8">
-        <v>42.7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="8">
+      <c r="B32" s="7">
+        <v>40.799999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="8">
-        <v>50.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="8">
-        <v>34.799999999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="8">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="8">
-        <v>66.400000000000006</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="8">
-        <v>58.9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="8">
-        <v>27.6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="8">
-        <v>27.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="8">
-        <v>43.4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="8">
-        <v>30.9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="8">
-        <v>28.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="8">
-        <v>53.6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="8">
-        <v>35.1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="8">
-        <v>48.4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="8">
-        <v>61.8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="8">
-        <v>40.799999999999997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="8">
+      <c r="B33" s="7">
         <v>46.8</v>
       </c>
     </row>
@@ -3120,6 +3250,7 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4094,7 +4225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8910FC78-86F2-4F4F-B2CB-FB213ED89CA8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B23" workbookViewId="0"/>
+    <sheetView topLeftCell="B17" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
